--- a/xls/correct/G1_LP_B.xlsx
+++ b/xls/correct/G1_LP_B.xlsx
@@ -27,94 +27,94 @@
     <t>ba</t>
   </si>
   <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>bo</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
     <t>pe</t>
   </si>
   <si>
-    <t>fi</t>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>po</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>le</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>wa</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>ka</t>
+  </si>
+  <si>
+    <t>ki</t>
   </si>
   <si>
     <t>ri</t>
   </si>
   <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
     <t>mi</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>la</t>
-  </si>
-  <si>
-    <t>ta</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>bo</t>
-  </si>
-  <si>
-    <t>ni</t>
-  </si>
-  <si>
-    <t>po</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>ne</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>pi</t>
-  </si>
-  <si>
-    <t>ko</t>
-  </si>
-  <si>
-    <t>li</t>
-  </si>
-  <si>
-    <t>ka</t>
-  </si>
-  <si>
-    <t>le</t>
-  </si>
-  <si>
-    <t>ro</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>ki</t>
-  </si>
-  <si>
-    <t>fa</t>
-  </si>
-  <si>
-    <t>ti</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>so</t>
-  </si>
-  <si>
-    <t>wa</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>se</t>
   </si>
 </sst>
 </file>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,19 +466,19 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -507,19 +507,19 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -548,19 +548,19 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
@@ -589,19 +589,19 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>2</v>
@@ -630,19 +630,19 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
@@ -671,19 +671,19 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
@@ -712,19 +712,19 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -753,19 +753,19 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
         <v>2</v>
@@ -794,7 +794,7 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
         <v>2</v>
@@ -835,19 +835,19 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
         <v>2</v>
@@ -876,19 +876,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
         <v>2</v>
@@ -917,19 +917,19 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
         <v>2</v>
@@ -958,19 +958,19 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
         <v>2</v>
@@ -999,19 +999,19 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
         <v>2</v>
@@ -1040,19 +1040,19 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
       <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>2</v>
@@ -1081,19 +1081,19 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
         <v>2</v>
@@ -1122,19 +1122,19 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G17" t="s">
         <v>2</v>
@@ -1163,19 +1163,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G18" t="s">
         <v>2</v>
@@ -1204,19 +1204,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G19" t="s">
         <v>2</v>
@@ -1245,19 +1245,19 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
         <v>2</v>
@@ -1286,19 +1286,19 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G21" t="s">
         <v>2</v>
@@ -1327,19 +1327,19 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G22" t="s">
         <v>2</v>
@@ -1368,19 +1368,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G23" t="s">
         <v>2</v>
@@ -1409,19 +1409,19 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G24" t="s">
         <v>2</v>
@@ -1450,19 +1450,19 @@
         <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
         <v>2</v>
@@ -1491,19 +1491,19 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G26" t="s">
         <v>2</v>
@@ -1532,19 +1532,19 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G27" t="s">
         <v>2</v>
@@ -1573,19 +1573,19 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
       <c r="E28" t="s">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
         <v>2</v>
@@ -1614,19 +1614,19 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G29" t="s">
         <v>2</v>
@@ -1655,19 +1655,19 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G30" t="s">
         <v>2</v>
@@ -1696,19 +1696,19 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
         <v>2</v>
@@ -1737,19 +1737,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E32" t="s">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
         <v>2</v>
@@ -1778,19 +1778,19 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G33" t="s">
         <v>2</v>
@@ -1819,19 +1819,19 @@
         <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E34" t="s">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
         <v>2</v>
@@ -1860,19 +1860,19 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G35" t="s">
         <v>2</v>
@@ -1901,19 +1901,19 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
         <v>2</v>
@@ -1942,19 +1942,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E37" t="s">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
         <v>2</v>
@@ -1983,19 +1983,19 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
         <v>2</v>
@@ -2024,19 +2024,19 @@
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
         <v>2</v>
@@ -2065,19 +2065,19 @@
         <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G40" t="s">
         <v>2</v>

--- a/xls/correct/G1_LP_B.xlsx
+++ b/xls/correct/G1_LP_B.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="10050"/>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,22 +504,22 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -586,22 +586,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
         <v>2</v>
@@ -955,22 +955,22 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
         <v>2</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
@@ -1078,22 +1078,22 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G16" t="s">
         <v>2</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
         <v>1</v>
@@ -1160,10 +1160,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
         <v>2</v>
@@ -1201,22 +1201,22 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
         <v>2</v>
@@ -1242,10 +1242,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G20" t="s">
         <v>2</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
         <v>1</v>
@@ -1324,22 +1324,22 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
         <v>2</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
@@ -1406,22 +1406,22 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
         <v>2</v>
@@ -1447,22 +1447,22 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G25" t="s">
         <v>2</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
@@ -1529,22 +1529,22 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
         <v>2</v>
@@ -1570,22 +1570,22 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G28" t="s">
         <v>2</v>
@@ -1611,22 +1611,22 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
         <v>2</v>
@@ -1652,22 +1652,22 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
         <v>2</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G31" t="s">
         <v>2</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
         <v>1</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
         <v>1</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
         <v>1</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
         <v>1</v>
@@ -1939,22 +1939,22 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E37" t="s">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G37" t="s">
         <v>2</v>
